--- a/national-parks-variances.xlsx
+++ b/national-parks-variances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilu2\my-data-class\ETL-Project\ETL-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DE5975-7A59-4477-B1E2-CA6E30D81787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738DE36-EF03-47AE-95C8-1A41012BDC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{335EE1AB-4B3E-422A-ACA5-048B4D32A2C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{335EE1AB-4B3E-422A-ACA5-048B4D32A2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B899B56-6ABB-44DE-9181-2DFC6A40F4C8}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
